--- a/src/Input_data.xlsx
+++ b/src/Input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PyCharm_projects\demostrator\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workM\MATLAB Drive\retrieval_rtmo\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB0DCB9-9895-463B-A059-96EF3A4A79B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CBAD06-9964-4226-954D-C798B5CDCB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="8" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="Fluorescence" sheetId="6" r:id="rId11"/>
     <sheet name="Fluorescence_norm" sheetId="7" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="282">
   <si>
     <t>wlmin</t>
   </si>
@@ -288,9 +288,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>leaf carotenoid content</t>
-  </si>
-  <si>
     <t>sun induced fluorescence (fit only)</t>
   </si>
   <si>
@@ -585,18 +582,6 @@
     <t>uneven (odd) integer or 0</t>
   </si>
   <si>
-    <t>sun_zenith</t>
-  </si>
-  <si>
-    <t>view_zenith_mean</t>
-  </si>
-  <si>
-    <t>sun_azimuth</t>
-  </si>
-  <si>
-    <t>view_azimuth_mean</t>
-  </si>
-  <si>
     <t>tz</t>
   </si>
   <si>
@@ -654,9 +639,6 @@
     <t>validation</t>
   </si>
   <si>
-    <t>[OPTIONAL] path to file with validation: first col - parameter name, rest - values corresponding to spectra</t>
-  </si>
-  <si>
     <t>timeseries</t>
   </si>
   <si>
@@ -688,9 +670,6 @@
   </si>
   <si>
     <t>yyyy-mm-dd HH:MM:SS</t>
-  </si>
-  <si>
-    <t>2018-06-27 11:00:00</t>
   </si>
   <si>
     <t>Information about sensor and wavelength range used for fitting</t>
@@ -704,7 +683,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
@@ -715,7 +694,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -740,7 +719,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <charset val="204"/>
         <scheme val="minor"/>
@@ -751,7 +730,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -783,28 +762,10 @@
     <t>[PREFERRED] path to file with 18 high resolution (0,01nm) MODTRAN transmittance functions (Alternative to providing Esun and Esky)</t>
   </si>
   <si>
-    <t>..\output</t>
-  </si>
-  <si>
-    <t>..\input\radiationdata\Esun_.dat</t>
-  </si>
-  <si>
-    <t>..\input\radiationdata\Esky_.dat</t>
-  </si>
-  <si>
-    <t>..\input\radiationdata\FLEX-S3_std.atm</t>
-  </si>
-  <si>
-    <t>..\measured\Sentinel-2_sample.nc</t>
-  </si>
-  <si>
     <t>Vredepeel (51.540788, 5.860210)</t>
   </si>
   <si>
     <t>Lelystad (52.54, 5.55)</t>
-  </si>
-  <si>
-    <t>synthetic_sat</t>
   </si>
   <si>
     <t>quality_flag_name</t>
@@ -827,7 +788,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -849,7 +810,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -859,7 +820,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -878,7 +839,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -888,21 +849,12 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> fitting will be done for this pixel</t>
     </r>
-  </si>
-  <si>
-    <t>..\measured\synthetic\MSI\synthetic.csv</t>
-  </si>
-  <si>
-    <t>..\measured\synthetic\MSI\synthetic_wl.csv</t>
-  </si>
-  <si>
-    <t>..\measured\synthetic\MSI\synthetic_val.csv</t>
   </si>
   <si>
     <t>lut_path</t>
@@ -934,7 +886,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -944,15 +896,12 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> look-up table will be used instead of numerical optimization</t>
     </r>
-  </si>
-  <si>
-    <t>synthetic</t>
   </si>
   <si>
     <t>NL (52.5283, 5.6035)</t>
@@ -972,7 +921,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -982,7 +931,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -998,7 +947,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,12 +957,129 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> look-up table will be used instead of numerical optimization (..\lut\MSI_1000\lut.mat)</t>
     </r>
+  </si>
+  <si>
+    <t>MODIS_Aqua</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MODIS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>MODIS_wl</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1899-12-30 00:00:00</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[OPTIONAL] path to file with validation: first col - parameter name, rest - values corresponding to spectra</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[OPTIONAL] path to file with prior information: first col - parameter name, rest - values corresponding to spectra</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>[OPTIONAL] path to file with prior uncertainty: first col - parameter name, rest - values corresponding to spectra</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\MODIS_wl.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\output\MODIS</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-reflectance.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>steppe</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-tts.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-tto.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-psi.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-apriori.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-apriori_std.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>leaf carotenoid content</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\input\radiationdata\FLEX-S3_std.atm</t>
+  </si>
+  <si>
+    <t>Apm_path</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Aps_path</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FVC</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>fractional vegetation cover</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>..\input\radiationdata\Esun_.dat</t>
+  </si>
+  <si>
+    <t>..\input\radiationdata\Esky_.dat</t>
+  </si>
+  <si>
+    <t>..\measured\synthetic\MODIS\steppe-reflectance_std.csv</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>V2Z</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DEPS</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1021,13 +1087,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1035,7 +1101,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
@@ -1047,7 +1113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1055,8 +1121,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1157,7 +1237,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1173,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1214,6 +1294,22 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1225,8 +1321,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1242,7 +1338,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1562,27 +1658,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" customWidth="1"/>
     <col min="7" max="7" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" t="s">
         <v>57</v>
@@ -1591,24 +1688,24 @@
         <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D2" s="25">
         <v>0</v>
@@ -1617,7 +1714,7 @@
         <v>0.9</v>
       </c>
       <c r="F2" s="25">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>58</v>
@@ -1626,7 +1723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>0</v>
       </c>
@@ -1634,7 +1731,7 @@
         <v>76</v>
       </c>
       <c r="C3" s="25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" s="25">
         <v>20</v>
@@ -1642,8 +1739,8 @@
       <c r="E3" s="25">
         <v>40</v>
       </c>
-      <c r="F3" s="25">
-        <v>12</v>
+      <c r="F3" s="36">
+        <v>3</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>59</v>
@@ -1652,7 +1749,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>0</v>
       </c>
@@ -1660,7 +1757,7 @@
         <v>77</v>
       </c>
       <c r="C4" s="25">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D4" s="25">
         <v>40</v>
@@ -1668,8 +1765,8 @@
       <c r="E4" s="25">
         <v>60</v>
       </c>
-      <c r="F4" s="25">
-        <v>9</v>
+      <c r="F4" s="36">
+        <v>4</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>60</v>
@@ -1678,7 +1775,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>0</v>
       </c>
@@ -1695,7 +1792,7 @@
         <v>55</v>
       </c>
       <c r="F5" s="25">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G5" s="25" t="s">
         <v>61</v>
@@ -1704,7 +1801,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="28">
         <v>1</v>
       </c>
@@ -1712,7 +1809,7 @@
         <v>79</v>
       </c>
       <c r="C6" s="28">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D6" s="28">
         <v>0</v>
@@ -1720,8 +1817,8 @@
       <c r="E6" s="28">
         <v>100</v>
       </c>
-      <c r="F6" s="28">
-        <v>30</v>
+      <c r="F6" s="37">
+        <v>45</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>62</v>
@@ -1730,7 +1827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
         <v>1</v>
       </c>
@@ -1746,25 +1843,25 @@
       <c r="E7" s="28">
         <v>25</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="37">
         <v>4</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c r="H7" s="29" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="28">
         <v>0</v>
@@ -1782,7 +1879,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
         <v>1</v>
       </c>
@@ -1790,16 +1887,16 @@
         <v>81</v>
       </c>
       <c r="C9" s="28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D9" s="28">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E9" s="28">
         <v>1.2E-2</v>
       </c>
-      <c r="D9" s="28">
-        <v>0</v>
-      </c>
-      <c r="E9" s="28">
-        <v>0.02</v>
-      </c>
-      <c r="F9" s="28">
-        <v>6.0000000000000001E-3</v>
+      <c r="F9" s="37">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>64</v>
@@ -1808,7 +1905,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="28">
         <v>1</v>
       </c>
@@ -1816,15 +1913,15 @@
         <v>82</v>
       </c>
       <c r="C10" s="28">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D10" s="28">
         <v>0</v>
       </c>
       <c r="E10" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="F10" s="37">
         <v>0.02</v>
       </c>
       <c r="G10" s="28" t="s">
@@ -1834,7 +1931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
         <v>1</v>
       </c>
@@ -1842,27 +1939,27 @@
         <v>83</v>
       </c>
       <c r="C11" s="28">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D11" s="28">
         <v>0</v>
       </c>
       <c r="E11" s="28">
-        <v>1.2</v>
-      </c>
-      <c r="F11" s="28">
-        <v>0.4</v>
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="37">
+        <v>1.4</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>84</v>
@@ -1877,7 +1974,7 @@
         <v>3.5</v>
       </c>
       <c r="F12" s="28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>67</v>
@@ -1886,7 +1983,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="30">
         <v>1</v>
       </c>
@@ -1894,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="30">
         <v>0</v>
@@ -1903,7 +2000,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="30">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>68</v>
@@ -1912,15 +2009,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32">
-        <v>1</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="40">
+        <v>0</v>
       </c>
       <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="30">
-        <v>-0.35</v>
+        <v>-0.5</v>
       </c>
       <c r="D14" s="30">
         <v>-1</v>
@@ -1929,22 +2026,22 @@
         <v>1</v>
       </c>
       <c r="F14" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="G14" s="33" t="s">
+        <v>0.76</v>
+      </c>
+      <c r="G14" s="41" t="s">
         <v>70</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
       <c r="B15" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="30">
-        <v>-0.15</v>
+        <v>-0.5</v>
       </c>
       <c r="D15" s="30">
         <v>-1</v>
@@ -1953,105 +2050,155 @@
         <v>1</v>
       </c>
       <c r="F15" s="30">
-        <v>0.6</v>
-      </c>
-      <c r="G15" s="33"/>
+        <v>0.76</v>
+      </c>
+      <c r="G15" s="41"/>
       <c r="H15" s="31" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="38">
+        <v>1</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C16" s="30">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16">
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="42">
         <v>0</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>40</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1000000000</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="B17" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" t="s">
-        <v>88</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5">
         <v>1000000000</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="42"/>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5">
         <v>1000000000</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F19" s="5">
         <v>1000000000</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>-2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>280</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1000000000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A17:A20"/>
   </mergeCells>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2065,9 +2212,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2076,6 +2223,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2088,12 +2236,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2102,6 +2250,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2111,12 +2260,12 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A212"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2125,6 +2274,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2133,11 +2283,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="64.88671875" bestFit="1" customWidth="1"/>
@@ -2145,18 +2295,18 @@
     <col min="4" max="4" width="87.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2167,153 +2317,154 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>101</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="D5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>107</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
         <v>104</v>
       </c>
-      <c r="D10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>117</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2322,20 +2473,20 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
@@ -2344,10 +2495,10 @@
         <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
@@ -2358,10 +2509,10 @@
         <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
@@ -2372,10 +2523,10 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -2391,7 +2542,7 @@
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -2407,7 +2558,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -2415,36 +2566,36 @@
         <v>-999</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -2455,51 +2606,51 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="8">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="B30" s="8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="8">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" s="8">
         <v>0.05</v>
@@ -2511,15 +2662,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="D33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2528,9 +2679,9 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2539,9 +2690,9 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2550,105 +2701,106 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B37" s="10">
-        <v>52.54</v>
+        <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="10">
-        <v>5.55</v>
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B40" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B41" s="8">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D41" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2659,65 +2811,64 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="33" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2731,37 +2882,70 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>214</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
@@ -2769,18 +2953,18 @@
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2791,287 +2975,251 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B2" s="1"/>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>234</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="D4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
         <v>104</v>
       </c>
-      <c r="D8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D10" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>117</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
         <v>168</v>
       </c>
-      <c r="D14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="D15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" t="s">
         <v>170</v>
       </c>
-      <c r="D16" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D17" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="8" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>173</v>
-      </c>
       <c r="D19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B23" s="9">
-        <v>39.941499999999998</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="8"/>
       <c r="D23" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B24" s="8">
-        <v>-5.7733611099999997</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B24" s="8"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B25" s="8"/>
       <c r="C25" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0.05</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>71</v>
       </c>
@@ -3079,771 +3227,845 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B27" s="8">
-        <v>4</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B27" s="8"/>
       <c r="D27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B28" s="8"/>
       <c r="D28" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="8">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="8">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="8">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>181</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="16.88671875" customWidth="1"/>
     <col min="4" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="20"/>
+    <col min="8" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G1" t="s">
-        <v>231</v>
-      </c>
-      <c r="H1" t="s">
-        <v>123</v>
-      </c>
       <c r="I1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J1" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="14">
         <v>400.28</v>
       </c>
       <c r="D3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E3" s="6">
         <v>555</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" s="14">
         <v>400.28</v>
       </c>
       <c r="H3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3" s="13">
         <v>443</v>
       </c>
-      <c r="J3" t="s">
-        <v>151</v>
+      <c r="J3" s="13" t="s">
+        <v>157</v>
       </c>
       <c r="K3" s="13">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" s="13">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="14">
         <v>412.69</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E4" s="6">
         <v>659</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="14">
         <v>412.69</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I4" s="13">
         <v>490</v>
       </c>
-      <c r="J4" t="s">
-        <v>152</v>
+      <c r="J4" s="13" t="s">
+        <v>158</v>
       </c>
       <c r="K4" s="13">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" s="13">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="14">
         <v>442.49</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="6">
         <v>865</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G5" s="14">
         <v>442.49</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" s="13">
         <v>560</v>
       </c>
-      <c r="J5" t="s">
-        <v>153</v>
+      <c r="J5" s="13" t="s">
+        <v>152</v>
       </c>
       <c r="K5" s="13">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M5" s="13">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="14">
         <v>490.98</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="6">
         <v>1375</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="14">
         <v>490.98</v>
       </c>
       <c r="H6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="13">
         <v>665</v>
       </c>
-      <c r="J6" t="s">
-        <v>154</v>
+      <c r="J6" s="13" t="s">
+        <v>159</v>
       </c>
       <c r="K6" s="13">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="M6" s="13">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="14">
         <v>510.9</v>
       </c>
       <c r="D7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E7" s="6">
         <v>1610</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G7" s="14">
         <v>510.9</v>
       </c>
       <c r="H7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I7" s="13">
         <v>705</v>
       </c>
-      <c r="J7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="13">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="32">
+        <v>530</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="32">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="14">
         <v>560.74</v>
       </c>
       <c r="D8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E8" s="6">
         <v>2250</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="14">
         <v>560.74</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I8" s="13">
         <v>740</v>
       </c>
-      <c r="J8" t="s">
-        <v>156</v>
+      <c r="J8" s="13" t="s">
+        <v>161</v>
       </c>
       <c r="K8" s="13">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" s="13">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="14">
         <v>620.64</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G9" s="14">
         <v>620.64</v>
       </c>
       <c r="H9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I9" s="13">
         <v>783</v>
       </c>
-      <c r="J9" t="s">
-        <v>157</v>
+      <c r="J9" s="13" t="s">
+        <v>153</v>
       </c>
       <c r="K9" s="13">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="M9" s="13">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="14">
         <v>665.62</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G10" s="14">
         <v>665.62</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="13">
         <v>842</v>
       </c>
-      <c r="J10" t="s">
-        <v>158</v>
+      <c r="J10" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="K10" s="13">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="M10" s="13">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="14">
         <v>674.36</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" s="14">
         <v>674.36</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I11" s="13">
         <v>865</v>
       </c>
-      <c r="J11" t="s">
-        <v>163</v>
+      <c r="J11" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="K11" s="13">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="M11" s="13">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="14">
         <v>681.86</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="14">
         <v>681.86</v>
       </c>
       <c r="H12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="13">
         <v>945</v>
       </c>
-      <c r="J12" t="s">
-        <v>159</v>
+      <c r="J12" s="13" t="s">
+        <v>154</v>
       </c>
       <c r="K12" s="13">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1242</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="13">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="14">
         <v>709.37</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="14">
         <v>709.37</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13" s="23">
         <v>1375</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="13">
+        <v>1628</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="13">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="14">
         <v>754.39</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G14" s="14">
         <v>754.39</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I14" s="13">
         <v>1610</v>
       </c>
-      <c r="J14" t="s">
-        <v>161</v>
+      <c r="J14" s="13" t="s">
+        <v>156</v>
       </c>
       <c r="K14" s="13">
-        <v>1610</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2113</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="13">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="22">
         <v>761.89</v>
       </c>
       <c r="F15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G15" s="14">
         <v>761.89</v>
       </c>
       <c r="H15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I15" s="13">
         <v>2190</v>
       </c>
-      <c r="J15" t="s">
-        <v>162</v>
-      </c>
-      <c r="K15" s="13">
-        <v>2190</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="22">
         <v>764.4</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="14">
         <v>764.4</v>
       </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="4"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="14">
         <v>768.15</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" s="14">
         <v>768.15</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="4"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="14">
         <v>779.41</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="14">
         <v>779.41</v>
       </c>
-      <c r="J18"/>
-      <c r="K18" s="14"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="14">
         <v>865.73</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G19" s="14">
         <v>865.73</v>
       </c>
-      <c r="J19"/>
-      <c r="K19" s="14"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" s="14">
         <v>885.73</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G20" s="14">
         <v>885.73</v>
       </c>
-      <c r="J20"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C21" s="14">
         <v>900.74</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G21" s="14">
         <v>900.74</v>
       </c>
-      <c r="J21"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21"/>
+      <c r="M21" s="14"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="14">
         <v>940.74</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="14">
         <v>940.74</v>
       </c>
-      <c r="J22"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22"/>
+      <c r="M22" s="14"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="14">
         <v>1024.67</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G23" s="14">
         <v>1024.67</v>
       </c>
-      <c r="J23"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23"/>
+      <c r="M23" s="14"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G24" s="6">
         <v>555</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G25" s="6">
         <v>659</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="6">
         <v>865</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G27" s="6">
         <v>1375</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G28" s="6">
         <v>1610</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" s="6">
         <v>2250</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3853,40 +4075,41 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3899,202 +4122,203 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4107,9 +4331,9 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4121,6 +4345,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4131,9 +4356,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -4145,6 +4370,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>